--- a/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>GWSO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,22 +735,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -752,26 +766,32 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,26 +801,32 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,22 +838,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>900</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,22 +1092,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1121,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,51 +1512,63 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,13 +1705,15 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>700</v>
@@ -1548,51 +1722,63 @@
         <v>800</v>
       </c>
       <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>800</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1634,14 +1826,14 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -1649,8 +1841,14 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1664,27 +1862,33 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
@@ -1693,22 +1897,28 @@
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1721,11 +1931,11 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1765,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,22 +2002,28 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1869,11 +2109,11 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,28 +2156,34 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+      <c r="I54" s="3">
+        <v>1000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1982,11 +2244,11 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2291,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2040,11 +2314,11 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2052,8 +2326,14 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2069,11 +2349,11 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2081,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2536,14 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2243,11 +2559,11 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,13 +2866,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E76" s="3">
         <v>800</v>
@@ -2515,13 +2887,13 @@
         <v>1000</v>
       </c>
       <c r="G76" s="3">
+        <v>800</v>
+      </c>
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+      <c r="I76" s="3">
+        <v>1000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,28 +3236,34 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -2837,8 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2867,11 +3309,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,25 +3409,31 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>GWSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -750,13 +754,16 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,15 +779,15 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,26 +817,29 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,25 +853,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,31 +1031,34 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,31 +1069,34 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1098,22 +1132,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1124,31 +1161,34 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1194,10 +1237,10 @@
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1206,19 +1249,22 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1299,10 +1351,10 @@
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1311,19 +1363,22 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,10 +1389,10 @@
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1346,19 +1401,22 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1518,22 +1588,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,10 +1617,10 @@
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -1556,19 +1629,22 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1614,10 +1693,10 @@
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -1626,59 +1705,65 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,32 +1793,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1753,8 +1843,8 @@
       <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -1768,8 +1858,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1832,11 +1928,11 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1868,11 +1967,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,32 +1981,35 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1937,8 +2042,8 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1967,16 +2075,16 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2008,11 +2119,11 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2115,8 +2235,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,31 +2285,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>1000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2250,8 +2381,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2431,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2320,8 +2457,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2355,8 +2495,8 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2697,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2565,8 +2723,8 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,32 +2903,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,31 +3055,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1000</v>
       </c>
       <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>1000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2994,10 +3189,10 @@
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -3006,19 +3201,22 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3254,20 +3471,20 @@
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3315,8 +3536,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3415,16 +3645,16 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,23 +3842,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3906,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3666,23 +3918,23 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>GWSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -757,13 +760,16 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,15 +788,15 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,26 +829,29 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,28 +866,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,13 +1044,14 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1034,31 +1060,34 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1072,31 +1101,34 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1135,22 +1168,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1164,54 +1200,57 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1225,13 +1264,16 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
@@ -1240,10 +1282,10 @@
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1252,19 +1294,22 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,13 +1387,16 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -1354,10 +1405,10 @@
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -1366,24 +1417,27 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -1392,10 +1446,10 @@
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -1404,19 +1458,22 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1591,27 +1660,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -1620,10 +1692,10 @@
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
@@ -1632,19 +1704,22 @@
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,13 +1756,16 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -1696,10 +1774,10 @@
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
@@ -1708,62 +1786,68 @@
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,26 +1889,26 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1846,8 +1935,8 @@
       <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1861,8 +1950,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1931,11 +2026,11 @@
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -1946,13 +2041,16 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1970,11 +2068,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1984,8 +2082,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,26 +2094,26 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2045,8 +2149,8 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2060,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2078,16 +2185,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2122,11 +2232,11 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2238,8 +2357,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2297,25 +2422,25 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1000</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>1000</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2384,8 +2514,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2396,31 +2526,34 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2434,13 +2567,16 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2460,8 +2596,8 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -2472,13 +2608,16 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2498,8 +2637,8 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,13 +2854,16 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2726,8 +2883,8 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3076,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,34 +3240,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1000</v>
       </c>
       <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
+      <c r="K76" s="3">
+        <v>1000</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,56 +3322,62 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
@@ -3192,10 +3386,10 @@
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
@@ -3204,19 +3398,22 @@
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3474,20 +3690,20 @@
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3539,8 +3759,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3648,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,35 +4075,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3871,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,35 +4157,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
       </c>
       <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>GWSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -763,13 +767,16 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,15 +798,15 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,26 +842,29 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,31 +880,32 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,16 +1071,17 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1063,31 +1090,34 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1104,31 +1134,34 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,11 +1187,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1171,22 +1205,25 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
@@ -1203,39 +1240,42 @@
         <v>-300</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1252,8 +1292,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1267,16 +1307,19 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
@@ -1285,10 +1328,10 @@
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1297,19 +1340,22 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,16 +1439,19 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
@@ -1408,10 +1460,10 @@
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -1420,27 +1472,30 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -1449,10 +1504,10 @@
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -1461,19 +1516,22 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,11 +1715,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1663,30 +1733,33 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -1695,10 +1768,10 @@
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
@@ -1707,19 +1780,22 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,16 +1835,19 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -1777,10 +1856,10 @@
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
@@ -1789,65 +1868,71 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1892,26 +1979,26 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1921,13 +2008,16 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -1938,8 +2028,8 @@
       <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1953,8 +2043,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,37 +2096,40 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +2152,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2071,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2085,38 +2184,41 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2152,8 +2257,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,11 +2346,11 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2360,8 +2480,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,37 +2536,40 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
+      <c r="L54" s="3">
+        <v>1000</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,13 +2618,14 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2517,8 +2648,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2529,17 +2660,20 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2555,8 +2689,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,7 +2716,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2599,8 +2736,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -2611,17 +2748,20 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -2640,8 +2780,8 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,13 +2836,16 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,17 +3012,20 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -2886,8 +3044,8 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,38 +3250,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,37 +3426,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1000</v>
       </c>
       <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
+      <c r="L76" s="3">
+        <v>1000</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,62 +3514,68 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -3389,10 +3584,10 @@
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
@@ -3401,19 +3596,22 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,13 +3889,16 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
@@ -3693,20 +3910,20 @@
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3762,8 +3983,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3880,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,38 +4321,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,29 +4421,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-300</v>
       </c>
       <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>GWSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -770,13 +774,16 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,15 +808,15 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,26 +855,29 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,34 +894,35 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +986,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,19 +1098,20 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1093,31 +1120,34 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1137,31 +1167,34 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,14 +1221,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1208,22 +1242,25 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,10 +1268,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1243,31 +1280,34 @@
         <v>-300</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,8 +1317,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1295,8 +1335,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,19 +1350,22 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
@@ -1331,10 +1374,10 @@
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1343,19 +1386,22 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1491,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
@@ -1463,10 +1515,10 @@
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1475,30 +1527,33 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
@@ -1507,10 +1562,10 @@
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1519,19 +1574,22 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,14 +1785,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1736,33 +1806,36 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
@@ -1771,10 +1844,10 @@
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -1783,19 +1856,22 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1914,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
@@ -1859,10 +1938,10 @@
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -1871,68 +1950,74 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,26 +2069,26 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
@@ -2031,8 +2121,8 @@
       <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2046,8 +2136,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2125,14 +2221,14 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2173,11 +2272,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,32 +2298,32 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2260,8 +2365,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2299,16 +2407,16 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2349,11 +2460,11 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2483,8 +2603,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,31 +2674,31 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1000</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>1000</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2651,8 +2782,8 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,11 +2806,11 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2692,8 +2826,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2856,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2739,8 +2876,8 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -2751,20 +2888,23 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2783,8 +2923,8 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,16 +2982,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,20 +3170,23 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -3047,8 +3205,8 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3424,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,40 +3612,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1000</v>
       </c>
       <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>1000</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3706,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
@@ -3587,10 +3782,10 @@
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -3599,19 +3794,22 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,16 +4106,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
@@ -3913,20 +4130,20 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3986,8 +4207,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4113,16 +4343,16 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,41 +4567,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,29 +4676,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
       </c>
       <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
